--- a/1.TestCase[SW]/TestCase(ST16_CGOET).xlsx
+++ b/1.TestCase[SW]/TestCase(ST16_CGOET).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="447" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1.Result Status" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="3.Firmware Version" sheetId="3" r:id="rId3"/>
     <sheet name="4.Update History" sheetId="2" r:id="rId4"/>
     <sheet name="5.Testcase_CGOET" sheetId="7" r:id="rId5"/>
-    <sheet name="6.Bug Report" sheetId="5" r:id="rId6"/>
+    <sheet name="6.Issue Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,107 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>丁正</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>龙</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>:     
-功能及用</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>户</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>体</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>验鉴别</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>待</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>确认</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bug ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Result Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,26 +100,6 @@
   </si>
   <si>
     <t>Firmware Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug Rank </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug Reporter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1085,104 +963,6 @@
     <t>CGOET_设置拍摄_AutoCalibration</t>
     <rPh sb="6" eb="7">
       <t>she zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.切换Auto Calibration开关，检查红外拍摄温度状态变化；</t>
-    <rPh sb="2" eb="3">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>kai guan</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>jian cha</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>wen du zhi</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhuang tai</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>bian hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当Auto Calibration开关打开时，红外拍摄自动校准拍摄温度值；当Auto Calibration开关关闭时，红外拍摄将不会自动校准拍摄温度值；</t>
-    <rPh sb="2" eb="3">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>kai guan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>da kai</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zi dong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>jiao zhun</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>wen du zhi</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>kai guan</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>guan bi</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>bu hui</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>zi dong</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>jiao zhun</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>wen du zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3192,13 +2972,7 @@
       <t>ji</t>
     </rPh>
     <rPh sb="97" eb="98">
-      <t>yun tai</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>pai s</t>
+      <t>yun taiyu lanpai s</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3244,13 +3018,7 @@
       <t>ji</t>
     </rPh>
     <rPh sb="140" eb="141">
-      <t>yun tai</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>she zhyi</t>
-    </rPh>
-    <rPh sb="282" eb="283">
-      <t>pai she</t>
+      <t>yun taishe zhyipai she</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3333,13 +3101,7 @@
       <t>ji</t>
     </rPh>
     <rPh sb="117" eb="118">
-      <t>yun tai</t>
-    </rPh>
-    <rPh sb="257" eb="258">
-      <t>she zhyi</t>
-    </rPh>
-    <rPh sb="259" eb="260">
-      <t>pai she</t>
+      <t>yun taishe zhyipai she</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3373,13 +3135,7 @@
       <t>yun tai</t>
     </rPh>
     <rPh sb="178" eb="179">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="267" eb="268">
-      <t>she zhyi</t>
-    </rPh>
-    <rPh sb="269" eb="270">
-      <t>pai she</t>
+      <t>jishe zhyipai she</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3425,13 +3181,7 @@
       <t>ji</t>
     </rPh>
     <rPh sb="140" eb="141">
-      <t>yun tai</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>she zhyi</t>
-    </rPh>
-    <rPh sb="282" eb="283">
-      <t>pai she</t>
+      <t>yun taishe zhyipai she</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3519,19 +3269,334 @@
       <t>zhong</t>
     </rPh>
     <rPh sb="186" eb="187">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>dan wei</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>xin xi</t>
-    </rPh>
-    <rPh sb="194" eb="195">
+      <t>wen dudan weixian shixin xibian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST16-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁正龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed，will double confirm with next version.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st16_system_v03.01.b22</t>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affect Version/s:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ST16]C-GOET云台移除SD Card时图传界面状态显示异常(0.00G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ST16]Camera Select中重复选择C-GOET提示信息有误(见附图)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">System Version: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">st16_system_v03.01.b22(BuildDate:2016-07-06) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Transmitter Version: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">st16_tx_v00.19 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Radio Version: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">st16_rf_v01.09 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FlightMode Version: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st16_app_v01.00.18</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I.前置条件： 
+  刷b20测试版本Firmware 
+  \\192.168.6.247\smartteam-release\ST16\dailybuild4test\st16_system_v03.01.b20_2016-07-01 
+II.复现步骤： 
+  1.刷机后进入系统，单击进入FlightMode App； 
+  2.在System Settings-&gt;Bind下绑定Camera； 
+  3.在System Settings-&gt;Camera Select切换Camera为C-GOET； 
+  4.返回FlightMode主界面，待图传正常时再次进入Camera Select选择C-GOET进行切换； 
+  5.检查Camera Select按钮提示信息是否正常，检查图传界面是否正常； 
+III.预期结果： 
+  1.重新切换Camera后单击Select后提示信息应为"Setup Complete!"且图传界面正常； 
+IV.实际结果： 
+  1.重新切换Camera单击Select后 弹出"Connect to the Flight System..."界面，同时Set Status界面提示信息为"Set failure!",但是图传信息正常； 
+V.附加信息： 
+  1.复现率：100%； 
+  2.比较验证不同类型云台(C-GO3,C-GO3-PRO,C-GOET),目前该现象仅出现在C-GOET上；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I.前置条件： 
+  刷b22测试版本Firmware 
+\\192.168.6.247\smartteam- release\ST16\dailybuild4test\st16_system_v03.01.b22_2016-07-26 
+II.复现步骤： 
+  1.刷机后进入系统，单击进入FlightMode App； 
+  2.Bind云台C-GOET并插入储量未满SD Card； 
+  3.检查图传界面SD Card状态信息； 
+  4.移除云台C-GOET的SD Card； 
+  5.检查图传界面SD Card状态变化信息； 
+III.预期结果： 
+  1.插入SD Card图传界面正确显示其储量信息； 
+  2.移除SD Card图传界面状态变为Not Detected； 
+IV.实际结果： 
+  1.插入SD Card图传界面正确显示其储量信息； 
+  2.移除SD Card图传界面状态变为0.00G； 
+V.附加信息： 
+  1.复现率：100%； 
+  2.目前该现象出现在C-GOET，不出现在C-GO3-Pro；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ST16]C-GOET中Auto Calibration切换功能及状态异常(见附图)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I.前置条件： 
+  刷b22测试版本Firmware 
+  \\192.168.6.247\smartteam-release\ST16\dailybuild4test\st16_system_v03.01.b22_2016-07-26 
+II.复现步骤： 
+  1.刷机后进入系统，单击进入FlightMode App； 
+  2.在System Settings-&gt;Bind下绑定飞机及云台(C-GOET)； 
+  3.在图传界面Camera Settings-&gt;Auto Calibration执行切换操作； 
+  4.检查Auto Calibration切换后状态及页面提示信息； 
+III预期结果： 
+  1.Auto Calibration按钮可以在On与Off之间切换，同时不出现Error信息； 
+IV.实际结果： 
+  1.单击Auto Calibration按钮后，On与Off之间没有发生切换，同时页面出现'Auto Calibrate Set Fail'的Error信息，但单击Camera Settings按钮再次打开时Auto Calibration状态发生改变； 
+V.附加信息： 
+  1.复现率：100%；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST16-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST16-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.切换Auto Calibration开关，检查切换功能及状态信息；</t>
+    <rPh sb="2" eb="3">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hong wai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>wen du zhi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
       <t>bian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Auto Calibration可以在On与Off之间进行切换，同时没有任何Error信息；</t>
+    <rPh sb="2" eb="3">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>da kai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hong wai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jiao zhun</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wen du zhi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dangkai guanguan bishi houhong waipai shejiangbu huizi dongjiao zhunpai shewen du zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3607,22 +3672,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="81"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3669,12 +3735,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3840,7 +3900,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3862,8 +3922,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3915,9 +3979,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3934,6 +3995,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3994,11 +4073,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4352,13 +4432,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="9" spans="8:12">
-      <c r="H9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="8:12" ht="15">
       <c r="H10" s="1" t="s">
@@ -4391,51 +4471,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="1:17">
-      <c r="A3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
+      <c r="A3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4468,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -4479,13 +4559,13 @@
     </row>
     <row r="2" spans="1:4" ht="168.95" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4515,7 +4595,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -4541,13 +4621,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -4634,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
@@ -4652,59 +4732,59 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27">
       <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="121.5">
       <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="22" t="s">
-        <v>103</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -4714,23 +4794,23 @@
     </row>
     <row r="3" spans="1:12" ht="121.5">
       <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="23" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -4740,23 +4820,23 @@
     </row>
     <row r="4" spans="1:12" ht="135">
       <c r="A4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="23" t="s">
-        <v>104</v>
+        <v>39</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>105</v>
+        <v>40</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -4766,23 +4846,23 @@
     </row>
     <row r="5" spans="1:12" ht="121.5">
       <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="23" t="s">
-        <v>104</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>96</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4791,24 +4871,24 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="121.5">
-      <c r="A6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="23" t="s">
-        <v>104</v>
+      <c r="A6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -4817,22 +4897,22 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="148.5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="23" t="s">
-        <v>106</v>
+      <c r="A7" s="44"/>
+      <c r="B7" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -4841,325 +4921,325 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="121.5">
-      <c r="A8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="A8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="148.5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="148.5">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="G10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="121.5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="121.5">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" ht="121.5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="121.5">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="121.5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="148.5">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="121.5">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="121.5">
-      <c r="A18" s="34"/>
-      <c r="B18" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="121.5">
-      <c r="A19" s="34"/>
-      <c r="B19" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="121.5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5189,86 +5269,195 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="55.25" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>21</v>
+    <row r="1" spans="1:13" s="5" customFormat="1">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+    <row r="2" spans="1:13" ht="70.5" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="25">
+        <v>42578</v>
+      </c>
+      <c r="L2" s="25">
+        <v>42587</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+    <row r="3" spans="1:13" ht="64.5" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="25">
+        <v>42578</v>
+      </c>
+      <c r="L3" s="25">
+        <v>42587</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+    <row r="4" spans="1:13" ht="60" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="25">
+        <v>42580</v>
+      </c>
+      <c r="L4" s="25">
+        <v>42587</v>
+      </c>
+      <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:13">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5277,8 +5466,13 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:13">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5287,8 +5481,13 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:13">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5297,8 +5496,13 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:13">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5307,8 +5511,13 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:13">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5317,8 +5526,13 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:13">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5327,8 +5541,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:13">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5337,8 +5556,13 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:13">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5347,8 +5571,13 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:13">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5357,8 +5586,13 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:13">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5367,8 +5601,13 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:13">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5377,8 +5616,13 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:13">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5387,8 +5631,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5397,8 +5648,13 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -5407,8 +5663,13 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5417,8 +5678,13 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5427,10 +5693,20 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/1.TestCase[SW]/TestCase(ST16_CGOET).xlsx
+++ b/1.TestCase[SW]/TestCase(ST16_CGOET).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="447" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="447" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.Result Status" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="6.Issue Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,82 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.“预览拍摄”窗口展开“图片拍摄”与“视频拍摄”(默认展开)预览窗口，单击“相机”与“录像”图标可分别预览照片与录像；</t>
-    <rPh sb="3" eb="4">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chuang kou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhan kai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>tu pian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shi p</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>mo ren</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zhan kai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>chuang k</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xiang ji</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>lu xiang</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>tu biao</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>fen bie</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>zhao p</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>lu xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CGOET_预览拍摄_02</t>
     <rPh sb="6" eb="7">
       <t>yu lan pai sghe</t>
@@ -431,118 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.FlightMode初始界面图传默认“可见光+红外线”叠加显示，同时左侧以色条方式显示红外拍摄最高温度及最低温度，中间显示中心温度，右侧存在“预览模式、锁定跨度、预览拍摄、设置拍摄”4个设置图标；</t>
-    <rPh sb="12" eb="13">
-      <t>chu shi jie mian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>tu chuan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>mo ren</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ke jian gaung</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>hong wai xian</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>die jia</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>tong shi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zuo ce</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>se</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>fang shi</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>pai s</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>zui gao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>zui di wen du</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>zhong jian</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>zhong xin</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>you ce</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>cun zai</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>mo shi</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>suo ding</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>kua du</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>yu lan</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>pai s</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>pai s</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>tu biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.在图传预览界面，单击“设置拍摄”图标，检查出现的窗口状态信息；</t>
     <rPh sb="2" eb="3">
       <t>zai</t>
@@ -589,43 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.单击“设置拍摄”图标后，出现包含“Photo、ROI、Palette、Single\Team、Auto calibration、Reset、Format SD Card、Measurement Corrections、Range”列表的菜单窗口；</t>
-    <rPh sb="2" eb="3">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>tu biao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chu xain</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>bao han</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>de</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>cai dan</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>chuang k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.单击ROI列表，检查展开菜单状态信息变化；</t>
     <rPh sb="2" eb="3">
       <t>dan ji</t>
@@ -772,79 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.单击Palette列表后，展开菜单包含Fusion、Rainbow、Golbow、Icefire、Ironblack切换单选框，默认选择Fusion，切换不同调色模式时图传区域左侧色条相应发生颜色变化；</t>
-    <rPh sb="2" eb="3">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhan kai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>cai dan</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bao han</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>dan xuan kuang</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>mo ren</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>xuan z</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>bu tong</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>tiao se</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>mo shi</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>tu chuan</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>zuo ce</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>xiang ying</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>fa sheng</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>yan se</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>bian hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CGOET_设置拍摄_Single/Team</t>
     <rPh sb="6" eb="7">
       <t>she zhi</t>
@@ -943,73 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.单击Reset图标后，弹出提示窗口信息“Reset all camera parameters!Would you want to reset?”,单击Cancel将取消操作，单击OK将执行格式化操作，操作结束图传区域下方显示“Reset succeed”信息；</t>
-    <rPh sb="2" eb="3">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tu biao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>tan chu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ti shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>chuang k</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xin xi</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>qu xiao</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>cao zuo</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>jiang zhi xing</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ge shi hua</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>cao zuo</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>cao zuo jie s</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>tu chuan</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>xia fang</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>xin xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CGOET_设置拍摄_FormatSDCard</t>
     <rPh sb="6" eb="7">
       <t>she zhi</t>
@@ -1086,85 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.单击Measurement Corrections列表后，展开菜单包含Manual/Auto切换按钮、Emissively滑条、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Atmospheric Transmission滑条，当控制按钮为Manual时可以手动设置Emissively及Atmospheric Transmission的值；</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhan kai</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>cai dan</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>bao han</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>hua tiao</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>hua tiao</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>kong zhi</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ke yi</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>shou dong</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>de</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.单击Range列表，检查展开菜单及左侧色条状态信息变化；</t>
     <rPh sb="2" eb="3">
       <t>dan ji</t>
@@ -1225,136 +782,6 @@
     <t>CGOET_设置拍摄</t>
     <rPh sb="6" eb="7">
       <t>she zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.单击Range列表后，展开菜单包含Manual/Auto切换按钮、lower limit滑条、upper limit滑条，当控制按钮为Manual时可以手动设置lower limit及upper limit值，左侧色条最低温度/最高温度与lower limit/upper limit的值保持一致，当控制按钮为Auto时不可以手动设置lower limit及upper limit；</t>
-    <rPh sb="2" eb="3">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhan kai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cai dan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bao han</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>hua tiao</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>hua tiao</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>kong zhi</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ke yi</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>shou dong</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>zuo ce</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>zui gao</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>di</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>zui di</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>gao</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>de</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>bao chi</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>yi zhi</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>kong zhi</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>bu ke yi</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>shou dong</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,10 +876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add Testcase for CGOET.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CGOET_设置拍摄_Range_03</t>
     <rPh sb="6" eb="7">
       <t>she zhi</t>
@@ -1497,109 +920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.Range为Manual时，左侧色条温度分别对应upper limit及lower limit温度值，锁定跨定按钮变为锁定状态；                                    2.Range为Auto时，左侧色条温度根据环境变化发生变化，锁定跨度按钮一直处于解锁状态； </t>
-    <rPh sb="2" eb="3">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhan kai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cai dan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bao han</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>hua tiao</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>hua tiao</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>kong zhi</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>an niu</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ke yi</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>shou dong</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>zuo ce</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>zui gao</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>di</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>zui di</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>gao</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>de</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>bao chi</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>yi zhidangkong zhian niuweishibu ke yishou dongshe zhiji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.图传界面左侧默认显示最高温度/最低温度的单位为℃且upper limit与lower limit差值保持不低于10℃；                                         2.图传界面左侧默认显示最高温度/最低温度的单位为℉且upper limit与lower limit差值保持不低于18℉； </t>
     <rPh sb="2" eb="3">
       <t>tu chuan</t>
@@ -1930,188 +1250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-1.Camera可选列表包含C-GO3,C-GO3-Pro,C-GOET选择列表，默认选择C-GO3-Pro;                    2-2.弹出“Set Complete”对话框，单击“OK”后成功切换Camera为C-GOET，FlightMode初始界面出现图传画面(默认为“红外线+可见光”);</t>
-    <rPh sb="8" eb="9">
-      <t>ke xuan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>lie</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bao han</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>xuan z</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>mo ren</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>xuan z</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>tan chu</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>dui hua kuang</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>dan ji</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>cheng g</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>chu shi</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>jie mian</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>chu xian</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>tu chuan</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>hua mian</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>mo r</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>hong wai xian</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>ke jian guang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当前场景的最高温度和最低温度，及其对应的调色板色条上不同颜色对应的温度值会被记录保存下来，色条最高温度，最低温度及色条颜色不跟随不同场景发生变化；                                          2-1.当解锁“锁定跨度”图标时，色条最高温度，最低温度及色条颜色跟随不同场景发生变化；            2-2.红外显示时超过最高温度的都是同一个颜色，低于最低温度的也是同一个颜色；</t>
-    <rPh sb="47" eb="48">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>zui gao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>zui di</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>yan se</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>bu fa sheng</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>gen sui</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>bu tong</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>chang j</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>bian h</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>jie suo</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>suo ding</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>kua du</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>tu biao</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>zui g</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>zui di</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>se tiao</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>yan se</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>gen s</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>bu tong</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>chang j</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>fa sheng</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>bian hua</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.在图传预览界面，单击“锁定跨度”图标锁定时，检查图传预览界面状态信息变化；            2.再次单击“锁定跨度”图标解锁时，检查图传预览界面状态信息变化；</t>
     <rPh sb="2" eb="3">
       <t>zai</t>
@@ -2391,10 +1529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1.云台SD Card根据自动拍照时间设定，固定时间每次拍摄3张照片(红外拍摄格式jpeg；可见光拍摄格式jpg及标记图像文件格式tiff),存储于DCIM/100MEDIA/下;                                          1-2.遥控器Internal Storage下不存储拍摄图片；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.将SD Card插入CGOET云台插槽，单击Format SD Card图标，检查出现的提示窗口状态信息变化；   2.将SD Card从CGOET云台插槽移除，再次单击Format SD Card图标，检查出现的提示窗口状态信息变化；</t>
     <rPh sb="2" eb="3">
       <t>jiang</t>
@@ -2602,196 +1736,6 @@
     </rPh>
     <rPh sb="97" eb="98">
       <t>yun tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.当切换为Separate时，红外拍摄显示区域出现在左上角，中间其它区域为可见光拍摄显示区域，中心点温度位于红外拍摄中心点；当切换为Blend时中间上层为红外拍摄显示区域，下层为可见光拍摄显示区域且红外区域略小于可见光区域，中心点温度位于屏幕中心；当切换为Infrared时，屏幕上预览界面只显示红外拍摄，中心点温度位于屏幕中心；当切换为Visible时，屏幕上预览界面只显示可见光拍摄，中心点温度位于屏幕中心；                                       1-2.默认“模式”为Blend显示；</t>
-    <rPh sb="2" eb="3">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>chu xain</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>zuo shang jiao</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhong jian</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>qi ta</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ke jian guang</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>zhong xin dai n</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>wen du</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>wei yu</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>hong wai xian</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>zhong xin dian</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>zhong jian</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>shang ceng</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>hong wai xian</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>xia ceng wei</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ke jian guang</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>guang</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>xian shi</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>hong wai xian</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>lüe</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>xiao yu</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ke jian guang</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>qu yu</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>wei yu</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>dang qie huan</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>qie huan</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>wei yu</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>mo ren</t>
-    </rPh>
-    <rPh sb="216" eb="217">
-      <t>mo shi</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>xian shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3414,43 +2358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.Auto Calibration可以在On与Off之间进行切换，同时没有任何Error信息；</t>
-    <rPh sb="2" eb="3">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>kai guan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>da kai</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>shi hou</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>hong wai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zi dong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>jiao zhun</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>pai she</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>wen du zhi</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dangkai guanguan bishi houhong waipai shejiangbu huizi dongjiao zhunpai shewen du zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.CGOET_锁定跨度</t>
     <rPh sb="8" eb="9">
       <t>suo ding</t>
@@ -3677,12 +2584,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.将云台SD Card插入读卡器进行PC预览，检查生成的图片(JPEG、JPG、TIF格式)、视频（MP4格式）均与ST16遥控器执行时间一致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.图片: 可预览、删除，通过遥控器上的拍照按钮获取的图片，目前最多支持22张图片(png格式)；
-  视频: 可预览、快进快退、删除，通过遥控器上的录像按钮获取的视频，目前最多支持10个视频(mp4格式)；                                        2.文件按照时间顺序自上而下依次排列，当数量达最大值后继续获取图片、视频时，文件自下而上依次删除，支持视频录像过程中进行照片拍摄操作；            3.在ST16遥控器Internal Storage及云台SD卡中分别保存一份每次拍摄/录像的照片/视频,同时每份照片/视频分别以可见光与红外(ST16遥控器红外区域截屏或录屏)形式保存；</t>
+    <t>2-1.Camera可选列表包含C-GO3,C-GO3-Pro,C-GOET，C-GO4，C-GO-PRO选择列表，默认选择C-GO3;                    2-2.弹出“Set Complete”对话框，单击“OK”后成功切换Camera为C-GOET，返回FlightMode初始界面出现图传画面(默认为“Blend”显示);</t>
+    <rPh sb="8" eb="9">
+      <t>ke xuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xuan z</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xuan z</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>tan chu</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>dui hua kuang</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>chu shi</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>jie mian</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>chu xian</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>tu chuan</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>hua mian</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>mo r</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>hong wai xian</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ke jian guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.当切换为Separate时，红外拍摄显示区域出现在左上角，中间其它区域为可见光拍摄显示区域，中心点温度位于红外拍摄中心点(单击红外区域可进行红外与可见切换显示)；当切换为Blend时中间上层为红外拍摄显示区域，下层为可见光拍摄显示区域且红外区域略小于可见光区域，中心点温度位于红外中心；当切换为Infrared时，屏幕上预览界面只显示红外拍摄，中心点温度位于红外中心；当切换为Visible时，屏幕上预览界面只显示可见光拍摄，中心点温度位于红外中心；                                       1-2.默认“模式”为Blend显示；</t>
+    <rPh sb="2" eb="3">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hong wai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chu xain</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zuo shang jiao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhong jian</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ke jian guang</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhong xin dai n</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>wei yu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>hong wai xian</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>zhong xin dian</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>zhong jian</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>shang ceng</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>hong wai xian</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>xia ceng wei</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ke jian guang</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>guang</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>hong wai xian</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>lüe</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>xiao yu</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ke jian guang</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>wei yu</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>dang qie huan</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>wei yu</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>mo shi</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>xian shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.FlightMode初始界面图传默认“可见光+红外线”融合显示，红外中间显示中心点温度，同时左侧以色条方式显示红外拍摄测温上限及测温下限，右侧存在“预览模式、锁定跨度、预览拍摄、设置拍摄”4个设置图标；</t>
+    <rPh sb="12" eb="13">
+      <t>chu shi jie mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tu chuan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke jian gaung</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hong wai xian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>die jia</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>tong shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zuo ce</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>se</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>hong wai</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>pai s</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zui di wen du</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>zhong jian</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zhong xin</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>you ce</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>mo shi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>suo ding</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>kua du</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>pai s</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>pai s</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>tu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当前场景的测温上限和测温下限，及其对应的色条颜色值会被记录保存下来，色条测温上限和测温下限及色条颜色不跟随不同场景发生变化；                                          2-1.当解锁“锁定跨度”图标时，色条测温上限和测温下限及色条颜色跟随不同场景发生变化；            2-2.红外显示时超过测温上限的都是同一个颜色，低于测温下限的也是同一个颜色；</t>
+    <rPh sb="47" eb="48">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zui di</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>bu fa sheng</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>gen sui</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>chang j</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>bian h</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>jie suo</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>suo ding</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>kua du</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>tu biao</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>zui g</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>zui di</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>gen s</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>chang j</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>fa sheng</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>bian hua</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>hong wai</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.图片: 可预览、删除，通过遥控器上的拍照按钮获取的图片，目前最多支持20张图片(png格式)；
+  视频: 可预览、快进快退、删除，通过遥控器上的录像按钮获取的视频，目前最多支持10个视频(mp4格式)；                                        2.文件按照时间顺序自上而下依次排列，当数量达最大值后继续获取图片、视频时，文件自下而上依次删除，不支持视频录像过程中进行照片拍摄操作；            3.在ST16遥控器Internal Storage及云台SD卡中分别保存每次拍摄/录像的照片/视频,同时云台SD卡中分别以红外及可见光形式保存每次拍摄的照片(jpeg、jpg及tif格式)，云台SD卡保存每次拍摄的可见光视频(mp4格式)；</t>
     <rPh sb="10" eb="11">
       <t>kuai jin</t>
     </rPh>
@@ -3797,6 +3184,735 @@
     <rPh sb="268" eb="269">
       <t>jie phuolu pingxing shibao cun</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.“预览拍摄”窗口展开图片拍摄与视频拍摄(默认)预览窗口，单击“相机”与“录像”图标可分别预览照片与视频，其中照片为图传界面截屏，视频分离为红外视频及可见光视频；</t>
+    <rPh sb="3" eb="4">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuang kou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu pian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yu lan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chuang k</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xiang ji</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>lu xiang</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>tu biao</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fen bie</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>yu lanzhao pyulu xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将云台SD Card插入读卡器在PC端进行预览，检查生成的图片(jpeg、jpg、tif格式)、视频（mp4格式）均与ST16遥控器执行时间一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击“设置拍摄”图标后，出现包含“Photo、ROI、Palette、Single\Team、Auto calibration、Reset、Format SD Card、Measurement Corrections、Range、Center Temperature Color”列表的菜单窗口；</t>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tu biao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chu xain</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>de</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>chuang k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.云台SD Card根据自动拍照时间设定，固定时间每次拍摄3张照片(红外拍摄格式jpeg；可见光拍摄格式jpg及标记图像文件格式tif),存储于DCIM/100MEDIA/下;                                          1-2.遥控器Internal Storage下不存储拍摄图片；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击Palette列表后，展开菜单包含Fusion、Rainbow、Golbow、Icefire、Ironblack切换单选按钮，默认选择Fusion，切换不同调色模式时图传区域左侧色条及红外显示相应发生颜色变化；</t>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>dan xuan kuang</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>xuan z</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>tiao se</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>mo shi</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>tu chuan</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>zuo ce</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>xiang ying</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>fa sheng</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>bian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Auto Calibration可以在On与Off之间进行切换，同时没有任何Error信息，On时自动进行温度校准；</t>
+    <rPh sb="2" eb="3">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>da kai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hong wai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jiao zhun</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>pai she</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wen du zhi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dangkai guanguan bishi houhong waipai shejiangbu huizi dongjiao zhunpai shewen du zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击Reset图标后，弹出提示窗口信息“Reset all camera parameters!Would you want to reset?”,单击Cancel将取消操作，单击OK将执行相机设置重置操作，操作结束图传区域下方显示“Reset succeed”信息；</t>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu biao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tan chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ti shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chuang k</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>jiang zhi xing</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ge shi hua</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>cao zuo jie s</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>tu chuan</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>xia fang</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击Range列表后，展开菜单包含Manual/Auto切换按钮、lower limit滑条、upper limit滑条，当控制按钮为Manual时可以手动设置lower limit及upper limit值，左侧色条最低温度/最高温度与lower limit/upper limit的值保持一致，同时左侧色条测温上下限值及红外显示颜色跟随发生变化，但控制按钮为Auto时不可以手动设置lower limit及upper limit；</t>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>hua tiao</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>hua tiao</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>zuo ce</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>di</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>zui di</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>de</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>bao chi</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>bu ke yi</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.单击Measurement Corrections列表后，展开菜单包含Manual/Auto切换按钮、Emissively滑条、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Atmospheric Transmission滑条，当控制按钮为Manual时可以手动设置Emissively及Atmospheric Transmission的值，同时左侧色条测温上下限值及红外显示颜色跟随发生变化，但控制按钮为Auto时不可以手动设置Emissively及Atmospheric Transmission的值；</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>hua tiao</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>hua tiao</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>de</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Range为Manual时，左侧色条温度分别对应upper limit及lower limit温度值，锁定跨定按钮变为锁定状态；                                    2.Range为Auto时，左侧色条温度根据环境变化发生变化，锁定跨度按钮变为解锁状态； </t>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>hua tiao</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>hua tiao</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>zuo ce</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>di</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>zui di</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>de</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>bao chiyi zhidangkong zhian niuweishibu ke yishou dongshe zhiji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGOET_设置拍摄_CenterTemperatureColor</t>
+    <rPh sb="6" eb="7">
+      <t>she zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.单击Center Temperature Color列表，检查展开菜单显示状态信息；                         </t>
+    <rPh sb="2" eb="3">
+      <t>dan ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhan kai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tu chuan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jie mian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zuo ce</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>se tiao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xin xizaizhongqie huanjian chatu chuanzuo cese tiaowen dudan weijilie biaozhongwen dudan weixian shixin xibian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Center Temperature Color列表展开为White、Black、Red、Blue、Yellow单选按钮，进行切换时中心点温度(或中心区域温度)显示颜色跟随发生变化；</t>
+    <rPh sb="2" eb="3">
+      <t>tu chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo ce</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zui di</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>cha zhi</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>bao chi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>bu di yubu di yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct,10th,2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因需求修改部分，增加中心温度颜色测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Testcase for CGOET.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加中心温度颜色选择列表功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3937,7 +4053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4026,32 +4142,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -4075,17 +4165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -4100,6 +4179,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -4135,7 +4225,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4184,7 +4274,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4221,10 +4311,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4256,38 +4349,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4649,13 +4742,13 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="9" spans="8:12">
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="8:12" ht="15">
       <c r="H10" s="1" t="s">
@@ -4695,44 +4788,44 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="1:17">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4765,7 +4858,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -4778,11 +4871,11 @@
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4798,16 +4891,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -4838,13 +4931,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -4855,30 +4948,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13">
@@ -4941,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
@@ -4961,10 +5064,10 @@
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
@@ -4997,21 +5100,21 @@
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -5023,12 +5126,12 @@
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>32</v>
@@ -5036,8 +5139,8 @@
       <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>44</v>
+      <c r="G3" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -5049,12 +5152,12 @@
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="40"/>
+      <c r="B4" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>32</v>
@@ -5062,8 +5165,8 @@
       <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>93</v>
+      <c r="G4" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -5073,23 +5176,23 @@
     </row>
     <row r="5" spans="1:12" ht="121.5">
       <c r="A5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="45"/>
       <c r="D5" s="21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -5098,15 +5201,15 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="121.5">
-      <c r="A6" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>32</v>
@@ -5114,8 +5217,8 @@
       <c r="F6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>42</v>
+      <c r="G6" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5123,23 +5226,23 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" ht="162">
-      <c r="A7" s="44"/>
-      <c r="B7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="40"/>
+    <row r="7" spans="1:12" ht="175.5">
+      <c r="A7" s="46"/>
+      <c r="B7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>146</v>
+        <v>75</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5148,48 +5251,48 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="94.5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="F8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="121.5">
-      <c r="A9" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="50"/>
+      <c r="A9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="42"/>
       <c r="D9" s="21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -5198,22 +5301,22 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="148.5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="50"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="42"/>
       <c r="D10" s="21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -5222,22 +5325,22 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="148.5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="50"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="42"/>
       <c r="D11" s="21" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5246,22 +5349,22 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="121.5">
-      <c r="A12" s="47"/>
-      <c r="B12" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="42"/>
       <c r="D12" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -5270,22 +5373,22 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="121.5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="50"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="42"/>
       <c r="D13" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5294,22 +5397,22 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="121.5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="50"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="42"/>
       <c r="D14" s="21" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5318,22 +5421,22 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="121.5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="50"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="42"/>
       <c r="D15" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -5342,22 +5445,22 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="121.5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="50"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="42"/>
       <c r="D16" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5366,22 +5469,22 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="148.5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="50"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="42"/>
       <c r="D17" s="21" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5390,22 +5493,22 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="121.5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="50"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="42"/>
       <c r="D18" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5414,22 +5517,22 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="121.5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="42"/>
       <c r="D19" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>143</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5438,22 +5541,22 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="121.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="40"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -5462,28 +5565,52 @@
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" ht="121.5">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="50"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="42"/>
       <c r="D21" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="121.5">
+      <c r="A22" s="44"/>
+      <c r="B22" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="25" spans="1:12">
       <c r="H25" s="19"/>
@@ -5493,10 +5620,19 @@
       <c r="L25" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A9:A22"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A21"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5509,14 +5645,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5549,40 +5677,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>10</v>
@@ -5590,34 +5718,34 @@
     </row>
     <row r="2" spans="1:13" ht="70.5" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="G2" s="25" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K2" s="24">
         <v>42578</v>
@@ -5626,39 +5754,39 @@
         <v>42587</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="64.5" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="G3" s="25" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K3" s="24">
         <v>42578</v>
@@ -5667,39 +5795,39 @@
         <v>42587</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="I4" s="23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K4" s="24">
         <v>42580</v>
@@ -5884,7 +6012,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
